--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ObservationAnamnesisLE.xlsx
+++ b/StructureDefinition-ObservationAnamnesisLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
